--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2070.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2070.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.160481383049128</v>
+        <v>1.305692434310913</v>
       </c>
       <c r="B1">
-        <v>3.063116573128158</v>
+        <v>3.924838066101074</v>
       </c>
       <c r="C1">
-        <v>4.259591475698578</v>
+        <v>3.813581943511963</v>
       </c>
       <c r="D1">
-        <v>3.236891507589999</v>
+        <v>3.056463479995728</v>
       </c>
       <c r="E1">
-        <v>1.197703727550566</v>
+        <v>1.043466091156006</v>
       </c>
     </row>
   </sheetData>
